--- a/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
+++ b/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
@@ -242,7 +242,7 @@
   <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="0.00" numFmtId="165"/>
-    <numFmt formatCode="0.00%" numFmtId="166"/>
+    <numFmt formatCode="0.000" numFmtId="166"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -276,12 +276,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,7 +324,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -327,7 +333,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -355,7 +369,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
+      <selection activeCell="D14" activeCellId="0" pane="topLeft" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -612,7 +626,7 @@
   <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C7" activeCellId="0" pane="topLeft" sqref="C7"/>
+      <selection activeCell="A18" activeCellId="0" pane="topLeft" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -684,8 +698,9 @@
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
+      <c r="C4" s="2" t="n">
+        <f aca="false">C6*2</f>
+        <v>26897092</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -709,13 +724,13 @@
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">MAX(C4:G4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
+        <v>26897092</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <f aca="false">2*K6</f>
         <v>448.284866666667</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="3" t="n">
         <f aca="false">2*L6</f>
         <v>7.47141444444445</v>
       </c>
@@ -754,17 +769,17 @@
         <f aca="false">MAX(C6:G6)</f>
         <v>13448546</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <f aca="false">C6/1000/60</f>
         <v>224.142433333333</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="3" t="n">
         <f aca="false">K6/60</f>
         <v>3.73570722222222</v>
       </c>
-      <c r="M6" s="3" t="n">
-        <f aca="false">1 - K6/K4</f>
-        <v>0.5</v>
+      <c r="M6" s="4" t="n">
+        <f aca="false">C4/C6</f>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
@@ -841,17 +856,17 @@
         <f aca="false">MAX(C10:G10)</f>
         <v>8135505</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="3" t="n">
         <f aca="false">C10/1000/60</f>
         <v>135.59175</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="3" t="n">
         <f aca="false">K10/60</f>
         <v>2.2598625</v>
       </c>
-      <c r="M10" s="3" t="n">
-        <f aca="false">1 - C10/C6</f>
-        <v>0.395064343758797</v>
+      <c r="M10" s="5" t="n">
+        <f aca="false">C4/C10</f>
+        <v>3.30613674258697</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
@@ -928,17 +943,17 @@
         <f aca="false">MAX(C14:G14)</f>
         <v>5847678</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="3" t="n">
         <f aca="false">C14/1000/60</f>
         <v>97.4613</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="3" t="n">
         <f aca="false">K14/60</f>
         <v>1.624355</v>
       </c>
-      <c r="M14" s="3" t="n">
-        <f aca="false">1 - C14/C10</f>
-        <v>0.281215118176438</v>
+      <c r="M14" s="5" t="n">
+        <f aca="false">C4/C14</f>
+        <v>4.59961919927876</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">

--- a/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
+++ b/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
@@ -324,7 +324,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -338,10 +338,6 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -625,8 +621,8 @@
   </sheetPr>
   <dimension ref="A1:M65536"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A18" activeCellId="0" pane="topLeft" sqref="A18"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B24" activeCellId="0" pane="topLeft" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -699,8 +695,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <f aca="false">C6*2</f>
-        <v>26897092</v>
+        <v>26690977</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -724,15 +719,19 @@
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">MAX(C4:G4)</f>
-        <v>26897092</v>
+        <v>26690977</v>
       </c>
       <c r="K4" s="3" t="n">
-        <f aca="false">2*K6</f>
-        <v>448.284866666667</v>
+        <f aca="false">C4/1000/60</f>
+        <v>444.849616666667</v>
       </c>
       <c r="L4" s="3" t="n">
-        <f aca="false">2*L6</f>
-        <v>7.47141444444445</v>
+        <f aca="false">K4/60</f>
+        <v>7.41416027777778</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">C4/C4</f>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
@@ -777,9 +776,9 @@
         <f aca="false">K6/60</f>
         <v>3.73570722222222</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="0" t="n">
         <f aca="false">C4/C6</f>
-        <v>2</v>
+        <v>1.98467380785997</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
@@ -864,9 +863,9 @@
         <f aca="false">K10/60</f>
         <v>2.2598625</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="4" t="n">
         <f aca="false">C4/C10</f>
-        <v>3.30613674258697</v>
+        <v>3.28080149910792</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
@@ -951,9 +950,9 @@
         <f aca="false">K14/60</f>
         <v>1.624355</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="M14" s="4" t="n">
         <f aca="false">C4/C14</f>
-        <v>4.59961919927876</v>
+        <v>4.5643718754692</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
@@ -1063,6 +1062,17 @@
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>10043951</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <f aca="false">C22/1000/60</f>
+        <v>167.399183333333</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <f aca="false">K22/60</f>
+        <v>2.78998638888889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1048576"/>

--- a/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
+++ b/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
@@ -232,7 +232,7 @@
     <t>32, 32, 32</t>
   </si>
   <si>
-    <t>SGSIM original</t>
+    <t>SGSIM original (openMP realization paralelization)</t>
   </si>
 </sst>
 </file>
@@ -276,18 +276,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -333,7 +327,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -365,7 +359,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D14" activeCellId="0" pane="topLeft" sqref="D14"/>
+      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,8 +615,8 @@
   </sheetPr>
   <dimension ref="A1:M65536"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B24" activeCellId="0" pane="topLeft" sqref="B24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A7" activeCellId="0" pane="topLeft" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -776,7 +770,7 @@
         <f aca="false">K6/60</f>
         <v>3.73570722222222</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="4" t="n">
         <f aca="false">C4/C6</f>
         <v>1.98467380785997</v>
       </c>
@@ -1056,7 +1050,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
         <v>71</v>
       </c>

--- a/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
+++ b/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
@@ -318,16 +318,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -616,7 +612,7 @@
   <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A7" activeCellId="0" pane="topLeft" sqref="A7"/>
+      <selection activeCell="L14" activeCellId="0" pane="topLeft" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -688,11 +684,11 @@
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="0" t="n">
         <v>26690977</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>26628769</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
@@ -705,7 +701,7 @@
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">(SUM(C4:G4)-J4-I4)/5</f>
-        <v>0</v>
+        <v>5325753.8</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">MIN(C4:G4)</f>
@@ -715,11 +711,11 @@
         <f aca="false">MAX(C4:G4)</f>
         <v>26690977</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="2" t="n">
         <f aca="false">C4/1000/60</f>
         <v>444.849616666667</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="2" t="n">
         <f aca="false">K4/60</f>
         <v>7.41416027777778</v>
       </c>
@@ -762,15 +758,15 @@
         <f aca="false">MAX(C6:G6)</f>
         <v>13448546</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="2" t="n">
         <f aca="false">C6/1000/60</f>
         <v>224.142433333333</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="2" t="n">
         <f aca="false">K6/60</f>
         <v>3.73570722222222</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="3" t="n">
         <f aca="false">C4/C6</f>
         <v>1.98467380785997</v>
       </c>
@@ -849,15 +845,15 @@
         <f aca="false">MAX(C10:G10)</f>
         <v>8135505</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">C10/1000/60</f>
         <v>135.59175</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">K10/60</f>
         <v>2.2598625</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="3" t="n">
         <f aca="false">C4/C10</f>
         <v>3.28080149910792</v>
       </c>
@@ -936,15 +932,15 @@
         <f aca="false">MAX(C14:G14)</f>
         <v>5847678</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="2" t="n">
         <f aca="false">C14/1000/60</f>
         <v>97.4613</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="2" t="n">
         <f aca="false">K14/60</f>
         <v>1.624355</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="3" t="n">
         <f aca="false">C4/C14</f>
         <v>4.5643718754692</v>
       </c>
@@ -1060,11 +1056,11 @@
       <c r="C22" s="0" t="n">
         <v>10043951</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="K22" s="2" t="n">
         <f aca="false">C22/1000/60</f>
         <v>167.399183333333</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="L22" s="2" t="n">
         <f aca="false">K22/60</f>
         <v>2.78998638888889</v>
       </c>

--- a/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
+++ b/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>EXPERIMENT NAME</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>32, 32, 32</t>
-  </si>
-  <si>
-    <t>SGSIM original (openMP realization paralelization)</t>
   </si>
 </sst>
 </file>
@@ -612,7 +609,7 @@
   <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L14" activeCellId="0" pane="topLeft" sqref="L14"/>
+      <selection activeCell="A16" activeCellId="0" pane="topLeft" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -778,6 +775,21 @@
       <c r="B7" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H7" s="0" t="n">
         <f aca="false">(SUM(C7:G7)-J7-I7)/5</f>
         <v>0</v>
@@ -798,6 +810,21 @@
       <c r="B8" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H8" s="0" t="n">
         <f aca="false">(SUM(C8:G8)-J8-I8)/5</f>
         <v>0</v>
@@ -865,6 +892,21 @@
       <c r="B11" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" s="0" t="n">
         <f aca="false">(SUM(C11:G11)-J11-I11)/5</f>
         <v>0</v>
@@ -885,6 +927,21 @@
       <c r="B12" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" s="0" t="n">
         <f aca="false">(SUM(C12:G12)-J12-I12)/5</f>
         <v>0</v>
@@ -952,6 +1009,21 @@
       <c r="B15" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>5865253</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" s="0" t="n">
         <f aca="false">(SUM(C15:G15)-J15-I15)/5</f>
         <v>0</v>
@@ -962,7 +1034,19 @@
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">MAX(C15:G15)</f>
-        <v>0</v>
+        <v>5865253</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <f aca="false">C15/1000/60</f>
+        <v>97.7542166666667</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <f aca="false">K15/60</f>
+        <v>1.62923694444444</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <f aca="false">C4/C15</f>
+        <v>4.55069491460982</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
@@ -972,6 +1056,21 @@
       <c r="B16" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" s="0" t="n">
         <f aca="false">(SUM(C16:G16)-J16-I16)/5</f>
         <v>0</v>
@@ -983,6 +1082,18 @@
       <c r="J16" s="0" t="n">
         <f aca="false">MAX(C16:G16)</f>
         <v>0</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <f aca="false">C16/1000/60</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <f aca="false">K16/60</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="e">
+        <f aca="false">C4/C16</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
@@ -1046,25 +1157,6 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>10043951</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <f aca="false">C22/1000/60</f>
-        <v>167.399183333333</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <f aca="false">K22/60</f>
-        <v>2.78998638888889</v>
-      </c>
-    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1048576"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
+++ b/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>EXPERIMENT NAME</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Speed up 1</t>
+  </si>
+  <si>
+    <t>Efficiency 1</t>
   </si>
   <si>
     <t>4, 1, 1</t>
@@ -236,10 +239,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="0.00" numFmtId="165"/>
     <numFmt formatCode="0.000" numFmtId="166"/>
+    <numFmt formatCode="0.00%" numFmtId="167"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -315,7 +319,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -328,7 +332,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -606,10 +618,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M65536"/>
+  <dimension ref="A1:N65536"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A16" activeCellId="0" pane="topLeft" sqref="A16"/>
+      <selection activeCell="B11" activeCellId="0" pane="topLeft" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -673,6 +685,9 @@
       <c r="M3" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="N3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
@@ -720,10 +735,13 @@
         <f aca="false">C4/C4</f>
         <v>1</v>
       </c>
+      <c r="N4" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
@@ -763,14 +781,18 @@
         <f aca="false">K6/60</f>
         <v>3.73570722222222</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="4" t="n">
         <f aca="false">C4/C6</f>
         <v>1.98467380785997</v>
       </c>
+      <c r="N6" s="5" t="n">
+        <f aca="false">M6/B6</f>
+        <v>0.992336903929985</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -805,7 +827,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2</v>
@@ -840,7 +862,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4</v>
@@ -880,14 +902,18 @@
         <f aca="false">K10/60</f>
         <v>2.2598625</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="4" t="n">
         <f aca="false">C4/C10</f>
         <v>3.28080149910792</v>
       </c>
+      <c r="N10" s="5" t="n">
+        <f aca="false">M10/B10</f>
+        <v>0.82020037477698</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>4</v>
@@ -922,7 +948,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4</v>
@@ -957,7 +983,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>8</v>
@@ -997,14 +1023,18 @@
         <f aca="false">K14/60</f>
         <v>1.624355</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="4" t="n">
         <f aca="false">C4/C14</f>
         <v>4.5643718754692</v>
       </c>
+      <c r="N14" s="5" t="n">
+        <f aca="false">M14/B14</f>
+        <v>0.57054648443365</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>8</v>
@@ -1044,20 +1074,24 @@
         <f aca="false">K15/60</f>
         <v>1.62923694444444</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="4" t="n">
         <f aca="false">C4/C15</f>
         <v>4.55069491460982</v>
       </c>
+      <c r="N15" s="5" t="n">
+        <f aca="false">M15/B15</f>
+        <v>0.568836864326227</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>5877833</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
@@ -1081,24 +1115,28 @@
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">MAX(C16:G16)</f>
-        <v>0</v>
+        <v>5877833</v>
       </c>
       <c r="K16" s="2" t="n">
         <f aca="false">C16/1000/60</f>
-        <v>0</v>
+        <v>97.9638833333333</v>
       </c>
       <c r="L16" s="2" t="n">
         <f aca="false">K16/60</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="e">
+        <v>1.63273138888889</v>
+      </c>
+      <c r="M16" s="4" t="n">
         <f aca="false">C4/C16</f>
-        <v>#DIV/0!</v>
+        <v>4.54095531465423</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <f aca="false">M16/B16</f>
+        <v>0.567619414331778</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>16</v>
@@ -1118,7 +1156,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>16</v>
@@ -1138,7 +1176,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>16</v>

--- a/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
+++ b/experiments/dirf_sgsim/DIRFSGS EXPERIMENT HERCULES 256x256x64 - 100 r.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="219" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="131" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" state="visible" r:id="rId2"/>
@@ -319,7 +319,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -329,10 +329,6 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -618,10 +614,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N65536"/>
+  <dimension ref="A1:O65536"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B11" activeCellId="0" pane="topLeft" sqref="B11"/>
+      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -735,7 +731,7 @@
         <f aca="false">C4/C4</f>
         <v>1</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,14 +777,15 @@
         <f aca="false">K6/60</f>
         <v>3.73570722222222</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="3" t="n">
         <f aca="false">C4/C6</f>
         <v>1.98467380785997</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="4" t="n">
         <f aca="false">M6/B6</f>
-        <v>0.992336903929985</v>
-      </c>
+        <v>0.992336903929986</v>
+      </c>
+      <c r="O6" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
@@ -902,14 +899,15 @@
         <f aca="false">K10/60</f>
         <v>2.2598625</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="3" t="n">
         <f aca="false">C4/C10</f>
         <v>3.28080149910792</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="4" t="n">
         <f aca="false">M10/B10</f>
-        <v>0.82020037477698</v>
-      </c>
+        <v>0.820200374776981</v>
+      </c>
+      <c r="O10" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
@@ -945,6 +943,22 @@
         <f aca="false">MAX(C11:G11)</f>
         <v>0</v>
       </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">C11/1000/60</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <f aca="false">K11/60</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="e">
+        <f aca="false">C4/C11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="4" t="e">
+        <f aca="false">M11/B11</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
@@ -954,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>8155605</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -978,7 +992,23 @@
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">MAX(C12:G12)</f>
-        <v>0</v>
+        <v>8155605</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">C12/1000/60</f>
+        <v>135.92675</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <f aca="false">K12/60</f>
+        <v>2.26544583333333</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <f aca="false">C4/C12</f>
+        <v>3.27271575805841</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <f aca="false">M12/B12</f>
+        <v>0.818178939514604</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
@@ -1023,11 +1053,11 @@
         <f aca="false">K14/60</f>
         <v>1.624355</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="3" t="n">
         <f aca="false">C4/C14</f>
         <v>4.5643718754692</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="N14" s="4" t="n">
         <f aca="false">M14/B14</f>
         <v>0.57054648443365</v>
       </c>
@@ -1074,13 +1104,13 @@
         <f aca="false">K15/60</f>
         <v>1.62923694444444</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="3" t="n">
         <f aca="false">C4/C15</f>
         <v>4.55069491460982</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="N15" s="4" t="n">
         <f aca="false">M15/B15</f>
-        <v>0.568836864326227</v>
+        <v>0.568836864326228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
@@ -1125,14 +1155,15 @@
         <f aca="false">K16/60</f>
         <v>1.63273138888889</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="3" t="n">
         <f aca="false">C4/C16</f>
         <v>4.54095531465423</v>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="N16" s="4" t="n">
         <f aca="false">M16/B16</f>
         <v>0.567619414331778</v>
       </c>
+      <c r="O16" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
